--- a/app/_resources/default_krbiz_order_unified_row_names.xlsx
+++ b/app/_resources/default_krbiz_order_unified_row_names.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t>PlatformName</t>
   </si>
@@ -112,7 +112,7 @@
     <t>주문 상품</t>
   </si>
   <si>
-    <t>주문 옵션</t>
+    <t/>
   </si>
   <si>
     <t>주문 수량</t>
@@ -267,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -276,6 +276,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -595,22 +598,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="4" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="4" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="4" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="4" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="4" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="4" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="5" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="5" width="25.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="5" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="5" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -723,9 +726,11 @@
         <v>31</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F3" s="3"/>
       <c r="G3" s="1" t="s">
         <v>33</v>
       </c>

--- a/app/_resources/default_krbiz_order_unified_row_names.xlsx
+++ b/app/_resources/default_krbiz_order_unified_row_names.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
   <si>
     <t>PlatformName</t>
   </si>
@@ -64,45 +64,51 @@
     <t>product_id</t>
   </si>
   <si>
+    <t>TOSS</t>
+  </si>
+  <si>
+    <t>주문번호</t>
+  </si>
+  <si>
+    <t>상품명</t>
+  </si>
+  <si>
+    <t>옵션</t>
+  </si>
+  <si>
+    <t>수량</t>
+  </si>
+  <si>
+    <t>수령인명</t>
+  </si>
+  <si>
+    <t>우편번호</t>
+  </si>
+  <si>
+    <t>주소</t>
+  </si>
+  <si>
+    <t>수령인 휴대폰</t>
+  </si>
+  <si>
+    <t>수령인 전화번호</t>
+  </si>
+  <si>
+    <t>배송시 요구사항</t>
+  </si>
+  <si>
+    <t>상품번호</t>
+  </si>
+  <si>
     <t>Gmarket</t>
   </si>
   <si>
-    <t>주문번호</t>
-  </si>
-  <si>
-    <t>상품명</t>
-  </si>
-  <si>
-    <t>옵션</t>
-  </si>
-  <si>
     <t>추가구성</t>
   </si>
   <si>
-    <t>수량</t>
-  </si>
-  <si>
-    <t>수령인명</t>
-  </si>
-  <si>
-    <t>우편번호</t>
-  </si>
-  <si>
-    <t>주소</t>
-  </si>
-  <si>
-    <t>수령인 휴대폰</t>
-  </si>
-  <si>
     <t>구매자 휴대폰</t>
   </si>
   <si>
-    <t>배송시 요구사항</t>
-  </si>
-  <si>
-    <t>상품번호</t>
-  </si>
-  <si>
     <t>Wadiz</t>
   </si>
   <si>
@@ -110,9 +116,6 @@
   </si>
   <si>
     <t>주문 상품</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>주문 수량</t>
@@ -267,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -278,8 +281,11 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -592,28 +598,28 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="15.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="17.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="23.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="17.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="19.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="20.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="20.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="5" width="25.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="5" width="16.290714285714284" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="5" width="18.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="5" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="6" width="15.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="7" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="6" width="17.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="6" width="23.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="17.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="6" width="16.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="19.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="20.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="6" width="20.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="6" width="25.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="16.290714285714284" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="18.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="6" width="12.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
@@ -666,185 +672,183 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
-      <c r="A2" s="1" t="s">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="17.25">
+      <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>32</v>
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="1" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="N4" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="O4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="P4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="1" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>51</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>53</v>
+        <v>27</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -853,83 +857,127 @@
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="1" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="J6" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="O6" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B7" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>59</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+      <c r="A8" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" s="2">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="1" t="s">
+      <c r="F8" s="3"/>
+      <c r="G8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="I8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="O7" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="P7" s="1" t="s">
+      <c r="N8" s="1" t="s">
         <v>67</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>

--- a/app/_resources/default_krbiz_order_unified_row_names.xlsx
+++ b/app/_resources/default_krbiz_order_unified_row_names.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="73">
   <si>
     <t>PlatformName</t>
   </si>
@@ -79,34 +79,46 @@
     <t>수량</t>
   </si>
   <si>
+    <t>수령인</t>
+  </si>
+  <si>
+    <t>우편번호</t>
+  </si>
+  <si>
+    <t>주소</t>
+  </si>
+  <si>
+    <t>수령인전화번호</t>
+  </si>
+  <si>
+    <t>전화번호</t>
+  </si>
+  <si>
+    <t>요청사항</t>
+  </si>
+  <si>
+    <t>주문상품번호</t>
+  </si>
+  <si>
+    <t>Gmarket</t>
+  </si>
+  <si>
+    <t>추가구성</t>
+  </si>
+  <si>
     <t>수령인명</t>
   </si>
   <si>
-    <t>우편번호</t>
-  </si>
-  <si>
-    <t>주소</t>
-  </si>
-  <si>
     <t>수령인 휴대폰</t>
   </si>
   <si>
-    <t>수령인 전화번호</t>
+    <t>구매자 휴대폰</t>
   </si>
   <si>
     <t>배송시 요구사항</t>
   </si>
   <si>
     <t>상품번호</t>
-  </si>
-  <si>
-    <t>Gmarket</t>
-  </si>
-  <si>
-    <t>추가구성</t>
-  </si>
-  <si>
-    <t>구매자 휴대폰</t>
   </si>
   <si>
     <t>Wadiz</t>
@@ -739,7 +751,7 @@
         <v>20</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>22</v>
@@ -750,63 +762,63 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="P4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -825,7 +837,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>22</v>
@@ -836,19 +848,19 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B6" s="2">
         <v>1</v>
@@ -857,42 +869,42 @@
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B7" s="2">
         <v>1</v>
@@ -911,73 +923,73 @@
         <v>20</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B8" s="2">
         <v>2</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L8" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="O8" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/app/_resources/default_krbiz_order_unified_row_names.xlsx
+++ b/app/_resources/default_krbiz_order_unified_row_names.xlsx
@@ -240,7 +240,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -251,6 +251,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -293,10 +299,10 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -728,7 +734,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="20.25">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -774,7 +780,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="20.25">
       <c r="A4" s="1" t="s">
         <v>35</v>
       </c>
@@ -816,12 +822,12 @@
       </c>
       <c r="P4" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B5" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>17</v>
@@ -858,7 +864,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="20.25">
       <c r="A6" s="1" t="s">
         <v>49</v>
       </c>
@@ -902,7 +908,7 @@
         <v>58</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="20.25">
       <c r="A7" s="1" t="s">
         <v>59</v>
       </c>
@@ -944,7 +950,7 @@
         <v>62</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="20.25">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
